--- a/src/rules_filtersv5_order.xlsx
+++ b/src/rules_filtersv5_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -571,28 +571,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F3" t="n">
-        <v>60.02608695652174</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G3" t="n">
-        <v>0.208695652173913</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="J3" t="n">
-        <v>1.782082324455206</v>
+        <v>2.083623693379791</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09158790170132323</v>
+        <v>0.08818525519848772</v>
       </c>
       <c r="L3" t="n">
-        <v>1.369565217391304</v>
+        <v>1.307312252964427</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -619,28 +619,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="F4" t="n">
-        <v>79.35652173913043</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2347826086956522</v>
+        <v>0.1260869565217391</v>
       </c>
       <c r="H4" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5142857142857143</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="J4" t="n">
-        <v>1.516483516483517</v>
+        <v>1.628815628815629</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07996219281663519</v>
+        <v>0.04867674858223063</v>
       </c>
       <c r="L4" t="n">
-        <v>1.360613810741688</v>
+        <v>1.147311212814645</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -715,28 +715,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F6" t="n">
-        <v>39.67826086956521</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1260869565217391</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2761904761904762</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="J6" t="n">
-        <v>1.628815628815629</v>
+        <v>1.593073593073593</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04867674858223063</v>
+        <v>0.02589792060491494</v>
       </c>
       <c r="L6" t="n">
-        <v>1.147311212814645</v>
+        <v>1.066927210552027</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>SAP Adaptive Server</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -763,28 +763,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F7" t="n">
-        <v>22.38260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1523809523809524</v>
+        <v>0.08571428571428573</v>
       </c>
       <c r="J7" t="n">
-        <v>1.593073593073593</v>
+        <v>1.971428571428572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02589792060491494</v>
+        <v>0.01928166351606806</v>
       </c>
       <c r="L7" t="n">
-        <v>1.066927210552027</v>
+        <v>1.046195652173913</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HBase</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -811,28 +811,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F8" t="n">
-        <v>16.27826086956522</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.08571428571428573</v>
       </c>
       <c r="J8" t="n">
-        <v>1.642857142857143</v>
+        <v>1.971428571428572</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02041587901701323</v>
+        <v>0.01928166351606806</v>
       </c>
       <c r="L8" t="n">
-        <v>1.050490883590463</v>
+        <v>1.046195652173913</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -859,28 +859,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="F9" t="n">
-        <v>8.139130434782608</v>
+        <v>9.156521739130435</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0761904761904762</v>
+        <v>0.08571428571428573</v>
       </c>
       <c r="J9" t="n">
         <v>2.190476190476191</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01890359168241966</v>
+        <v>0.02126654064272212</v>
       </c>
       <c r="L9" t="n">
-        <v>1.044822949350067</v>
+        <v>1.050951086956522</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Neo4j</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1003,28 +1003,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="F12" t="n">
-        <v>8.139130434782608</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06666666666666668</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="J12" t="n">
-        <v>1.916666666666667</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01455576559546314</v>
+        <v>0.02041587901701323</v>
       </c>
       <c r="L12" t="n">
-        <v>1.03416149068323</v>
+        <v>1.050490883590463</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Google Cloud Datastore</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1051,28 +1051,28 @@
         <v>106.8260869565217</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F13" t="n">
-        <v>24.41739130434782</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="J13" t="n">
-        <v>1.095238095238095</v>
+        <v>2.190476190476191</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004536862003780721</v>
+        <v>0.01890359168241966</v>
       </c>
       <c r="L13" t="n">
-        <v>1.011220196353436</v>
+        <v>1.044822949350067</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1084,43 +1084,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D14" t="n">
-        <v>78.33913043478262</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="F14" t="n">
-        <v>64.09565217391302</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H14" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.06666666666666668</v>
       </c>
       <c r="J14" t="n">
-        <v>1.94392908678623</v>
+        <v>2.190476190476191</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08655954631379963</v>
+        <v>0.0165406427221172</v>
       </c>
       <c r="L14" t="n">
-        <v>1.553019323671498</v>
+        <v>1.038819875776397</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1132,43 +1132,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D15" t="n">
-        <v>78.33913043478262</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F15" t="n">
-        <v>41.71304347826087</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H15" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.06666666666666668</v>
       </c>
       <c r="J15" t="n">
-        <v>2.914159011719987</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0.114234404536862</v>
+        <v>0.01455576559546314</v>
       </c>
       <c r="L15" t="n">
-        <v>1.710105757931845</v>
+        <v>1.03416149068323</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1180,43 +1180,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Google Cloud Datastore</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D16" t="n">
-        <v>78.33913043478262</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="F16" t="n">
-        <v>60.02608695652174</v>
+        <v>24.41739130434782</v>
       </c>
       <c r="G16" t="n">
-        <v>0.208695652173913</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H16" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="J16" t="n">
-        <v>2.430112260620735</v>
+        <v>1.095238095238095</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1228166351606805</v>
+        <v>0.004536862003780721</v>
       </c>
       <c r="L16" t="n">
-        <v>1.974062968515742</v>
+        <v>1.011220196353436</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1228,43 +1228,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D17" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F17" t="n">
-        <v>79.35652173913043</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="H17" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="J17" t="n">
-        <v>1.761571761571762</v>
+        <v>1.516483516483517</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08646502835538754</v>
+        <v>0.07996219281663519</v>
       </c>
       <c r="L17" t="n">
-        <v>1.641514726507714</v>
+        <v>1.766304347826087</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1276,43 +1276,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D18" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="F18" t="n">
-        <v>28.48695652173913</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H18" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="J18" t="n">
-        <v>2.987012987012987</v>
+        <v>1.799217731421122</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08098298676748583</v>
+        <v>0.06952741020793952</v>
       </c>
       <c r="L18" t="n">
-        <v>1.380124223602485</v>
+        <v>1.380745341614907</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1324,43 +1324,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D19" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="F19" t="n">
-        <v>39.67826086956521</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3116883116883117</v>
+        <v>0.4487179487179488</v>
       </c>
       <c r="J19" t="n">
-        <v>1.838161838161838</v>
+        <v>1.638176638176638</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04758034026465028</v>
+        <v>0.05928166351606808</v>
       </c>
       <c r="L19" t="n">
-        <v>1.206480721903199</v>
+        <v>1.317087967644085</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1372,43 +1372,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D20" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F20" t="n">
-        <v>10.17391304347826</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.1260869565217391</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1168831168831169</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="J20" t="n">
-        <v>2.688311688311689</v>
+        <v>2.085678549093184</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02457466918714556</v>
+        <v>0.06563327032136106</v>
       </c>
       <c r="L20" t="n">
-        <v>1.083120204603581</v>
+        <v>1.308074534161491</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -1420,43 +1420,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HBase</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D21" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="F21" t="n">
-        <v>16.27826086956522</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1168831168831169</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="J21" t="n">
-        <v>1.680194805194805</v>
+        <v>1.663379355687048</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01584120982986768</v>
+        <v>0.03814744801512288</v>
       </c>
       <c r="L21" t="n">
-        <v>1.053580562659846</v>
+        <v>1.15667701863354</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1468,43 +1468,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D22" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F22" t="n">
-        <v>9.156521739130435</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="J22" t="n">
-        <v>2.655122655122655</v>
+        <v>1.544566544566545</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02168241965973535</v>
+        <v>0.03372400756143668</v>
       </c>
       <c r="L22" t="n">
-        <v>1.072274732199118</v>
+        <v>1.138509316770186</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -1516,25 +1516,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D23" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="F23" t="n">
-        <v>8.139130434782608</v>
+        <v>9.156521739130435</v>
       </c>
       <c r="G23" t="n">
         <v>0.03478260869565217</v>
@@ -1543,16 +1543,16 @@
         <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J23" t="n">
-        <v>2.987012987012987</v>
+        <v>2.621082621082621</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02313799621928166</v>
+        <v>0.02151228733459357</v>
       </c>
       <c r="L23" t="n">
-        <v>1.077126654064272</v>
+        <v>1.070683229813665</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -1564,19 +1564,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="D24" t="n">
-        <v>78.33913043478262</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="E24" t="n">
         <v>0.03478260869565217</v>
@@ -1585,22 +1585,22 @@
         <v>8.139130434782608</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J24" t="n">
-        <v>2.613636363636364</v>
+        <v>2.211538461538462</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01879017013232514</v>
+        <v>0.01429111531190926</v>
       </c>
       <c r="L24" t="n">
-        <v>1.061739130434783</v>
+        <v>1.045652173913043</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -1612,43 +1612,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D25" t="n">
-        <v>78.33913043478262</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F25" t="n">
-        <v>8.139130434782608</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.8135593220338982</v>
       </c>
       <c r="J25" t="n">
-        <v>2.987012987012987</v>
+        <v>1.782082324455206</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02313799621928166</v>
+        <v>0.09158790170132323</v>
       </c>
       <c r="L25" t="n">
-        <v>1.077126654064272</v>
+        <v>2.915019762845849</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -1660,43 +1660,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>PostgreSQL</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Google Cloud Datastore</t>
-        </is>
-      </c>
       <c r="C26" t="n">
+        <v>0.2565217391304348</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60.02608695652174</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.3347826086956522</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
         <v>78.33913043478262</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="F26" t="n">
-        <v>24.41739130434782</v>
-      </c>
       <c r="G26" t="n">
-        <v>0.04782608695652174</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8135593220338982</v>
       </c>
       <c r="J26" t="n">
-        <v>1.369047619047619</v>
+        <v>2.430112260620735</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01289224952741021</v>
+        <v>0.1228166351606805</v>
       </c>
       <c r="L26" t="n">
-        <v>1.044927536231884</v>
+        <v>3.567984189723319</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -1708,43 +1708,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>HyperSQL</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
       <c r="C27" t="n">
+        <v>0.2565217391304348</v>
+      </c>
+      <c r="D27" t="n">
+        <v>60.02608695652174</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2739130434782608</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
         <v>64.09565217391302</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="F27" t="n">
-        <v>106.8260869565217</v>
-      </c>
       <c r="G27" t="n">
-        <v>0.191304347826087</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="H27" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6984126984126985</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="J27" t="n">
-        <v>1.529856386999244</v>
+        <v>2.165725047080979</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06625708884688095</v>
+        <v>0.0819092627599244</v>
       </c>
       <c r="L27" t="n">
-        <v>1.802059496567506</v>
+        <v>1.784963768115942</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -1756,7 +1756,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D28" t="n">
-        <v>64.09565217391302</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E28" t="n">
         <v>0.1782608695652174</v>
@@ -1777,22 +1777,22 @@
         <v>41.71304347826087</v>
       </c>
       <c r="G28" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3968253968253969</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="J28" t="n">
-        <v>2.226093689508324</v>
+        <v>3.327821413807358</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05986767485822306</v>
+        <v>0.1064461247637051</v>
       </c>
       <c r="L28" t="n">
-        <v>1.362356979405035</v>
+        <v>2.020108695652174</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D29" t="n">
-        <v>64.09565217391302</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E29" t="n">
         <v>0.1217391304347826</v>
@@ -1825,22 +1825,22 @@
         <v>28.48695652173913</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3174603174603175</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="J29" t="n">
-        <v>2.607709750566894</v>
+        <v>3.619854721549637</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05361058601134215</v>
+        <v>0.08181474480151228</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28675429726997</v>
+        <v>1.570223978919631</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -1852,43 +1852,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D30" t="n">
-        <v>64.09565217391302</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F30" t="n">
-        <v>39.67826086956521</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" t="n">
-        <v>0.253968253968254</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="J30" t="n">
-        <v>1.497761497761498</v>
+        <v>1.392251815980629</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02311909262759925</v>
+        <v>0.01837429111531191</v>
       </c>
       <c r="L30" t="n">
-        <v>1.11313598519889</v>
+        <v>1.096047430830039</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -1900,43 +1900,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D31" t="n">
-        <v>64.09565217391302</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="F31" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2222222222222223</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="J31" t="n">
-        <v>3.006535947712419</v>
+        <v>2.041969330104923</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04062381852551986</v>
+        <v>0.02440453686200378</v>
       </c>
       <c r="L31" t="n">
-        <v>1.190683229813665</v>
+        <v>1.116938405797101</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -1948,43 +1948,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D32" t="n">
-        <v>64.09565217391302</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F32" t="n">
-        <v>17.29565217391304</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2222222222222223</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="J32" t="n">
-        <v>3.006535947712419</v>
+        <v>2.657935285053929</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04062381852551986</v>
+        <v>0.04068052930056711</v>
       </c>
       <c r="L32" t="n">
-        <v>1.190683229813665</v>
+        <v>1.212648221343873</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -1996,43 +1996,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D33" t="n">
-        <v>64.09565217391302</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F33" t="n">
-        <v>22.38260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06521739130434782</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="J33" t="n">
-        <v>2.489177489177489</v>
+        <v>3.508474576271187</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03901701323251418</v>
+        <v>0.0279773156899811</v>
       </c>
       <c r="L33" t="n">
-        <v>1.18695652173913</v>
+        <v>1.128695652173913</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -2044,43 +2044,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="D34" t="n">
-        <v>64.09565217391302</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F34" t="n">
-        <v>10.17391304347826</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="J34" t="n">
-        <v>3.650793650793651</v>
+        <v>3.898305084745763</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03156899810964083</v>
+        <v>0.02586011342155009</v>
       </c>
       <c r="L34" t="n">
-        <v>1.136997538966366</v>
+        <v>1.116624040920716</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -2092,43 +2092,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HBase</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D35" t="n">
-        <v>64.09565217391302</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F35" t="n">
-        <v>16.27826086956522</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.2</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07936507936507937</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="J35" t="n">
-        <v>1.140873015873016</v>
+        <v>1.761571761571762</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002684310018903593</v>
+        <v>0.08646502835538754</v>
       </c>
       <c r="L35" t="n">
-        <v>1.010644677661169</v>
+        <v>1.641514726507714</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -2140,43 +2140,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hazelcast</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D36" t="n">
-        <v>64.09565217391302</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F36" t="n">
-        <v>10.17391304347826</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I36" t="n">
-        <v>0.126984126984127</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="J36" t="n">
-        <v>2.920634920634921</v>
+        <v>2.987012987012987</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02287334593572779</v>
+        <v>0.08098298676748583</v>
       </c>
       <c r="L36" t="n">
-        <v>1.095652173913044</v>
+        <v>1.380124223602485</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -2188,43 +2188,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D37" t="n">
-        <v>41.71304347826087</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F37" t="n">
-        <v>106.8260869565217</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H37" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="J37" t="n">
-        <v>2.083623693379791</v>
+        <v>1.706864564007421</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08818525519848772</v>
+        <v>0.04321361058601134</v>
       </c>
       <c r="L37" t="n">
-        <v>11.14130434782608</v>
+        <v>1.187530762920427</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -2236,25 +2236,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D38" t="n">
-        <v>41.71304347826087</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F38" t="n">
-        <v>39.67826086956521</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G38" t="n">
         <v>0.06956521739130435</v>
@@ -2263,16 +2263,16 @@
         <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="J38" t="n">
-        <v>2.301438398999375</v>
+        <v>2.172373081463991</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03933837429111531</v>
+        <v>0.03754253308128545</v>
       </c>
       <c r="L38" t="n">
-        <v>1.361913043478261</v>
+        <v>1.141553813257306</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -2284,19 +2284,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D39" t="n">
-        <v>41.71304347826087</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E39" t="n">
         <v>0.09130434782608696</v>
@@ -2305,22 +2305,22 @@
         <v>21.36521739130435</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="J39" t="n">
-        <v>2.671312427409988</v>
+        <v>1.706864564007421</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02720226843100189</v>
+        <v>0.02160680529300567</v>
       </c>
       <c r="L39" t="n">
-        <v>1.201823281907433</v>
+        <v>1.076454849498328</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -2332,43 +2332,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>SAP Adaptive Server</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D40" t="n">
-        <v>41.71304347826087</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F40" t="n">
-        <v>22.38260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04782608695652174</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="J40" t="n">
-        <v>2.804878048780488</v>
+        <v>2.987012987012987</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03077504725897921</v>
+        <v>0.02892249527410208</v>
       </c>
       <c r="L40" t="n">
-        <v>1.235942028985507</v>
+        <v>1.099286177806619</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -2380,43 +2380,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D41" t="n">
-        <v>41.71304347826087</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E41" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10.17391304347826</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.0391304347826087</v>
       </c>
-      <c r="F41" t="n">
-        <v>9.156521739130435</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.02173913043478261</v>
-      </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1219512195121951</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="J41" t="n">
-        <v>3.116531165311653</v>
+        <v>2.688311688311689</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01476370510396975</v>
+        <v>0.02457466918714556</v>
       </c>
       <c r="L41" t="n">
-        <v>1.094323671497585</v>
+        <v>1.083120204603581</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
@@ -2428,19 +2428,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D42" t="n">
-        <v>41.71304347826087</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E42" t="n">
         <v>0.03478260869565217</v>
@@ -2449,22 +2449,22 @@
         <v>8.139130434782608</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="J42" t="n">
-        <v>4.207317073170731</v>
+        <v>2.987012987012987</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01988657844990548</v>
+        <v>0.02313799621928166</v>
       </c>
       <c r="L42" t="n">
-        <v>1.130683229813665</v>
+        <v>1.077126654064272</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -2476,43 +2476,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D43" t="n">
-        <v>60.02608695652174</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="F43" t="n">
-        <v>64.09565217391302</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H43" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5932203389830508</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="J43" t="n">
-        <v>2.165725047080979</v>
+        <v>1.680194805194805</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0819092627599244</v>
+        <v>0.01584120982986768</v>
       </c>
       <c r="L43" t="n">
-        <v>1.784963768115942</v>
+        <v>1.053580562659846</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -2524,43 +2524,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>Hazelcast</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D44" t="n">
-        <v>60.02608695652174</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F44" t="n">
-        <v>41.71304347826087</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H44" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5932203389830508</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J44" t="n">
-        <v>3.327821413807358</v>
+        <v>1.792207792207792</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1064461247637051</v>
+        <v>0.01153119092627599</v>
       </c>
       <c r="L44" t="n">
-        <v>2.020108695652174</v>
+        <v>1.037354562155542</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -2572,43 +2572,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D45" t="n">
-        <v>60.02608695652174</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F45" t="n">
-        <v>79.35652173913043</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H45" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J45" t="n">
-        <v>1.799217731421122</v>
+        <v>2.613636363636364</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06952741020793952</v>
+        <v>0.01879017013232514</v>
       </c>
       <c r="L45" t="n">
-        <v>1.695274102079395</v>
+        <v>1.061739130434783</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -2620,43 +2620,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D46" t="n">
-        <v>60.02608695652174</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="F46" t="n">
-        <v>42.7304347826087</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06521739130434782</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H46" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J46" t="n">
-        <v>1.392251815980629</v>
+        <v>2.987012987012987</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01837429111531191</v>
+        <v>0.02024574669187146</v>
       </c>
       <c r="L46" t="n">
-        <v>1.096047430830039</v>
+        <v>1.066521739130435</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -2668,43 +2668,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D47" t="n">
-        <v>60.02608695652174</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F47" t="n">
-        <v>39.67826086956521</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H47" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>0.288135593220339</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J47" t="n">
-        <v>1.699261190786615</v>
+        <v>2.24025974025974</v>
       </c>
       <c r="K47" t="n">
-        <v>0.03041587901701324</v>
+        <v>0.01444234404536862</v>
       </c>
       <c r="L47" t="n">
-        <v>1.16656314699793</v>
+        <v>1.046785058175138</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -2716,43 +2716,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>Google Cloud Datastore</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="D48" t="n">
-        <v>60.02608695652174</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="F48" t="n">
-        <v>17.29565217391304</v>
+        <v>24.41739130434782</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="H48" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>0.288135593220339</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J48" t="n">
-        <v>3.898305084745763</v>
+        <v>1.369047619047619</v>
       </c>
       <c r="K48" t="n">
-        <v>0.05495274102079395</v>
+        <v>0.01289224952741021</v>
       </c>
       <c r="L48" t="n">
-        <v>1.300931677018633</v>
+        <v>1.044927536231884</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -2764,43 +2764,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D49" t="n">
-        <v>60.02608695652174</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F49" t="n">
-        <v>10.17391304347826</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.6984126984126985</v>
       </c>
       <c r="J49" t="n">
-        <v>3.508474576271187</v>
+        <v>1.529856386999244</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0279773156899811</v>
+        <v>0.06625708884688095</v>
       </c>
       <c r="L49" t="n">
-        <v>1.128695652173913</v>
+        <v>1.802059496567506</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -2812,43 +2812,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D50" t="n">
-        <v>60.02608695652174</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="F50" t="n">
-        <v>9.156521739130435</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="J50" t="n">
-        <v>3.898305084745763</v>
+        <v>1.94392908678623</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02909262759924386</v>
+        <v>0.08655954631379963</v>
       </c>
       <c r="L50" t="n">
-        <v>1.133826086956522</v>
+        <v>1.904940711462451</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -2860,43 +2860,43 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D51" t="n">
-        <v>60.02608695652174</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F51" t="n">
-        <v>8.139130434782608</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="J51" t="n">
-        <v>3.898305084745763</v>
+        <v>2.226093689508324</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02586011342155009</v>
+        <v>0.05986767485822306</v>
       </c>
       <c r="L51" t="n">
-        <v>1.116624040920716</v>
+        <v>1.362356979405035</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -2908,43 +2908,43 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D52" t="n">
-        <v>60.02608695652174</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F52" t="n">
-        <v>8.139130434782608</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.3174603174603175</v>
       </c>
       <c r="J52" t="n">
-        <v>3.898305084745763</v>
+        <v>2.607709750566894</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02586011342155009</v>
+        <v>0.05361058601134215</v>
       </c>
       <c r="L52" t="n">
-        <v>1.116624040920716</v>
+        <v>1.28675429726997</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -2956,43 +2956,43 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D53" t="n">
-        <v>79.35652173913043</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F53" t="n">
-        <v>64.09565217391302</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="H53" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4487179487179488</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="J53" t="n">
-        <v>1.638176638176638</v>
+        <v>1.564625850340136</v>
       </c>
       <c r="K53" t="n">
-        <v>0.05928166351606808</v>
+        <v>0.02824196597353498</v>
       </c>
       <c r="L53" t="n">
-        <v>1.317087967644085</v>
+        <v>1.144347826086957</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -3004,43 +3004,43 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D54" t="n">
-        <v>79.35652173913043</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="F54" t="n">
-        <v>41.71304347826087</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1260869565217391</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H54" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3717948717948718</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="J54" t="n">
-        <v>2.085678549093184</v>
+        <v>1.564625850340136</v>
       </c>
       <c r="K54" t="n">
-        <v>0.06563327032136106</v>
+        <v>0.01412098298676749</v>
       </c>
       <c r="L54" t="n">
-        <v>1.308074534161491</v>
+        <v>1.060144927536232</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -3052,43 +3052,43 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D55" t="n">
-        <v>79.35652173913043</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F55" t="n">
-        <v>28.48695652173913</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="H55" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="J55" t="n">
-        <v>2.211538461538461</v>
+        <v>2.489177489177489</v>
       </c>
       <c r="K55" t="n">
-        <v>0.05001890359168242</v>
+        <v>0.03901701323251418</v>
       </c>
       <c r="L55" t="n">
-        <v>1.201830663615561</v>
+        <v>1.18695652173913</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -3100,43 +3100,43 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D56" t="n">
-        <v>79.35652173913043</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="F56" t="n">
-        <v>42.7304347826087</v>
+        <v>9.156521739130435</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H56" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n">
-        <v>0.282051282051282</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="J56" t="n">
-        <v>1.544566544566545</v>
+        <v>3.245149911816579</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03372400756143668</v>
+        <v>0.02406427221172023</v>
       </c>
       <c r="L56" t="n">
-        <v>1.138509316770186</v>
+        <v>1.100632411067194</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -3148,43 +3148,43 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="D57" t="n">
-        <v>79.35652173913043</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F57" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H57" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="J57" t="n">
-        <v>1.684981684981685</v>
+        <v>3.650793650793651</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02120982986767486</v>
+        <v>0.02525519848771267</v>
       </c>
       <c r="L57" t="n">
-        <v>1.073913043478261</v>
+        <v>1.105612648221344</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -3196,43 +3196,43 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="D58" t="n">
-        <v>79.35652173913043</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="F58" t="n">
-        <v>17.29565217391304</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H58" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="J58" t="n">
-        <v>2.77526395173454</v>
+        <v>2.914159011719987</v>
       </c>
       <c r="K58" t="n">
-        <v>0.04449905482041588</v>
+        <v>0.114234404536862</v>
       </c>
       <c r="L58" t="n">
-        <v>1.16507713884993</v>
+        <v>27.27391304347823</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -3244,43 +3244,43 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="D59" t="n">
-        <v>79.35652173913043</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="E59" t="n">
+        <v>0.1217391304347826</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28.48695652173913</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.09565217391304348</v>
       </c>
-      <c r="F59" t="n">
-        <v>22.38260869565217</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.06521739130434782</v>
-      </c>
       <c r="H59" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="J59" t="n">
-        <v>2.01048951048951</v>
+        <v>4.407665505226481</v>
       </c>
       <c r="K59" t="n">
-        <v>0.03277882797731569</v>
+        <v>0.07395085066162571</v>
       </c>
       <c r="L59" t="n">
-        <v>1.119668737060041</v>
+        <v>1.895194508009153</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
@@ -3292,43 +3292,43 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="D60" t="n">
-        <v>79.35652173913043</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="F60" t="n">
-        <v>10.17391304347826</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="J60" t="n">
-        <v>2.948717948717948</v>
+        <v>2.301438398999375</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02873345935727788</v>
+        <v>0.03933837429111531</v>
       </c>
       <c r="L60" t="n">
-        <v>1.097186700767264</v>
+        <v>1.361913043478261</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -3340,43 +3340,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="D61" t="n">
-        <v>79.35652173913043</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F61" t="n">
-        <v>9.156521739130435</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="H61" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="J61" t="n">
-        <v>2.621082621082621</v>
+        <v>1.736353077816492</v>
       </c>
       <c r="K61" t="n">
-        <v>0.02151228733459357</v>
+        <v>0.02396975425330813</v>
       </c>
       <c r="L61" t="n">
-        <v>1.070683229813665</v>
+        <v>1.196894409937888</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
@@ -3388,43 +3388,43 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Neo4j</t>
+          <t>SAP Adaptive Server</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="D62" t="n">
-        <v>79.35652173913043</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="E62" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10.17391304347826</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.03478260869565217</v>
       </c>
-      <c r="F62" t="n">
-        <v>8.139130434782608</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.02608695652173913</v>
-      </c>
       <c r="H62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I62" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="J62" t="n">
-        <v>2.211538461538462</v>
+        <v>4.487804878048781</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01429111531190926</v>
+        <v>0.02703213610586011</v>
       </c>
       <c r="L62" t="n">
-        <v>1.045652173913043</v>
+        <v>1.188405797101449</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3499,28 +3499,28 @@
         <v>28.48695652173913</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F64" t="n">
-        <v>41.71304347826087</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G64" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="H64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="J64" t="n">
-        <v>4.407665505226481</v>
+        <v>2.211538461538462</v>
       </c>
       <c r="K64" t="n">
-        <v>0.07395085066162571</v>
+        <v>0.05001890359168242</v>
       </c>
       <c r="L64" t="n">
-        <v>3.834782608695652</v>
+        <v>2.643478260869565</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3547,28 +3547,28 @@
         <v>28.48695652173913</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F65" t="n">
-        <v>60.02608695652174</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1130434782608696</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="H65" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J65" t="n">
-        <v>3.619854721549636</v>
+        <v>4.107142857142857</v>
       </c>
       <c r="K65" t="n">
-        <v>0.08181474480151228</v>
+        <v>0.03618147448015123</v>
       </c>
       <c r="L65" t="n">
-        <v>10.4086956521739</v>
+        <v>1.489514066496163</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Neo4j</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3595,28 +3595,28 @@
         <v>28.48695652173913</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F66" t="n">
-        <v>8.139130434782608</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J66" t="n">
-        <v>6.160714285714286</v>
+        <v>7.392857142857143</v>
       </c>
       <c r="K66" t="n">
-        <v>0.02185255198487713</v>
+        <v>0.0338374291115312</v>
       </c>
       <c r="L66" t="n">
-        <v>1.228458498023715</v>
+        <v>1.409610983981693</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SapHana</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3643,28 +3643,28 @@
         <v>28.48695652173913</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="F67" t="n">
-        <v>7.121739130434782</v>
+        <v>9.156521739130435</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J67" t="n">
-        <v>8.214285714285714</v>
+        <v>5.476190476190475</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0267296786389414</v>
+        <v>0.02132325141776938</v>
       </c>
       <c r="L67" t="n">
-        <v>1.292753623188406</v>
+        <v>1.222924901185771</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
@@ -3676,43 +3676,43 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="D68" t="n">
-        <v>42.7304347826087</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="F68" t="n">
-        <v>78.33913043478262</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H68" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="J68" t="n">
-        <v>1.706864564007421</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="K68" t="n">
-        <v>0.04321361058601134</v>
+        <v>0.0267296786389414</v>
       </c>
       <c r="L68" t="n">
-        <v>1.552173913043478</v>
+        <v>1.292753623188406</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
@@ -3724,43 +3724,43 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="D69" t="n">
-        <v>42.7304347826087</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F69" t="n">
-        <v>64.09565217391302</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H69" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J69" t="n">
-        <v>1.564625850340136</v>
+        <v>6.160714285714286</v>
       </c>
       <c r="K69" t="n">
-        <v>0.02824196597353498</v>
+        <v>0.02185255198487713</v>
       </c>
       <c r="L69" t="n">
-        <v>1.270652173913044</v>
+        <v>1.228458498023715</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -3772,43 +3772,43 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="D70" t="n">
-        <v>42.7304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="F70" t="n">
-        <v>41.71304347826087</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05652173913043478</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="H70" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="J70" t="n">
-        <v>1.736353077816493</v>
+        <v>1.699261190786615</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02396975425330813</v>
+        <v>0.03041587901701324</v>
       </c>
       <c r="L70" t="n">
-        <v>1.190104947526237</v>
+        <v>1.31798418972332</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
@@ -3820,43 +3820,43 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="D71" t="n">
-        <v>42.7304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="F71" t="n">
-        <v>28.48695652173913</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="J71" t="n">
-        <v>1.760204081632653</v>
+        <v>1.838161838161838</v>
       </c>
       <c r="K71" t="n">
-        <v>0.01689981096408318</v>
+        <v>0.04758034026465028</v>
       </c>
       <c r="L71" t="n">
-        <v>1.117786561264822</v>
+        <v>1.729565217391304</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
@@ -3868,43 +3868,43 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="D72" t="n">
-        <v>42.7304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="F72" t="n">
-        <v>39.67826086956521</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="H72" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.4102564102564103</v>
       </c>
       <c r="J72" t="n">
-        <v>3.22954822954823</v>
+        <v>1.497761497761498</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0690359168241966</v>
+        <v>0.02311909262759925</v>
       </c>
       <c r="L72" t="n">
-        <v>1.835697940503433</v>
+        <v>1.231190926275993</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
@@ -3916,43 +3916,43 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HBase</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="D73" t="n">
-        <v>42.7304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F73" t="n">
-        <v>16.27826086956522</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="J73" t="n">
-        <v>2.738095238095238</v>
+        <v>1.895604395604396</v>
       </c>
       <c r="K73" t="n">
-        <v>0.02207939508506616</v>
+        <v>0.01848771266540643</v>
       </c>
       <c r="L73" t="n">
-        <v>1.149360613810742</v>
+        <v>1.141739130434783</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
@@ -3964,7 +3964,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="D74" t="n">
-        <v>42.7304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="E74" t="n">
         <v>0.04347826086956522</v>
@@ -3991,16 +3991,16 @@
         <v>7</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="J74" t="n">
-        <v>3.833333333333334</v>
+        <v>4.128205128205129</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0224952741020794</v>
+        <v>0.02306238185255199</v>
       </c>
       <c r="L74" t="n">
-        <v>1.147826086956522</v>
+        <v>1.165760869565218</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="D75" t="n">
-        <v>42.7304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="E75" t="n">
         <v>0.03478260869565217</v>
@@ -4033,22 +4033,22 @@
         <v>8.139130434782608</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="J75" t="n">
-        <v>4.107142857142857</v>
+        <v>5.160256410256411</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01973534971644612</v>
+        <v>0.02453686200378072</v>
       </c>
       <c r="L75" t="n">
-        <v>1.126086956521739</v>
+        <v>1.176358695652174</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
@@ -4060,7 +4060,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="D76" t="n">
-        <v>42.7304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="E76" t="n">
         <v>0.1043478260869565</v>
@@ -4087,16 +4087,16 @@
         <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="J76" t="n">
-        <v>1.597222222222223</v>
+        <v>1.72008547008547</v>
       </c>
       <c r="K76" t="n">
-        <v>0.01137996219281664</v>
+        <v>0.01274102079395086</v>
       </c>
       <c r="L76" t="n">
-        <v>1.074782608695652</v>
+        <v>1.091576086956522</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
@@ -4108,43 +4108,43 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="D77" t="n">
-        <v>39.67826086956521</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F77" t="n">
-        <v>79.35652173913043</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G77" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H77" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J77" t="n">
-        <v>1.663379355687048</v>
+        <v>1.760204081632653</v>
       </c>
       <c r="K77" t="n">
-        <v>0.03814744801512288</v>
+        <v>0.01689981096408318</v>
       </c>
       <c r="L77" t="n">
-        <v>1.516112531969309</v>
+        <v>1.117786561264822</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
@@ -4156,43 +4156,43 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>MongoDB</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>IBM DB2</t>
-        </is>
-      </c>
       <c r="C78" t="n">
+        <v>0.1826086956521739</v>
+      </c>
+      <c r="D78" t="n">
+        <v>42.7304347826087</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.1695652173913043</v>
       </c>
-      <c r="D78" t="n">
+      <c r="F78" t="n">
         <v>39.67826086956521</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.1217391304347826</v>
-      </c>
-      <c r="F78" t="n">
-        <v>28.48695652173913</v>
-      </c>
       <c r="G78" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.1</v>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="J78" t="n">
-        <v>1.895604395604396</v>
+        <v>3.22954822954823</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01848771266540643</v>
+        <v>0.0690359168241966</v>
       </c>
       <c r="L78" t="n">
-        <v>1.141739130434783</v>
+        <v>1.835697940503433</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
@@ -4204,7 +4204,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="D79" t="n">
-        <v>39.67826086956521</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="E79" t="n">
         <v>0.09130434782608696</v>
@@ -4231,16 +4231,16 @@
         <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="J79" t="n">
-        <v>2.808302808302808</v>
+        <v>2.607709750566893</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02799621928166351</v>
+        <v>0.02680529300567108</v>
       </c>
       <c r="L79" t="n">
-        <v>1.222038980509745</v>
+        <v>1.192663043478261</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
@@ -4252,43 +4252,43 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>Hazelcast</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="D80" t="n">
-        <v>21.36521739130435</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F80" t="n">
-        <v>106.8260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G80" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H80" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J80" t="n">
-        <v>1.981859410430839</v>
+        <v>3.833333333333334</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04092627599243856</v>
+        <v>0.0224952741020794</v>
       </c>
       <c r="L80" t="n">
-        <v>5.706521739130428</v>
+        <v>1.147826086956522</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
@@ -4300,43 +4300,43 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="D81" t="n">
-        <v>21.36521739130435</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F81" t="n">
-        <v>78.33913043478262</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H81" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J81" t="n">
-        <v>2.418058132343846</v>
+        <v>4.107142857142857</v>
       </c>
       <c r="K81" t="n">
-        <v>0.04334593572778828</v>
+        <v>0.01973534971644612</v>
       </c>
       <c r="L81" t="n">
-        <v>3.492391304347826</v>
+        <v>1.126086956521739</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
@@ -4348,43 +4348,43 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>Google Cloud Datastore</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="D82" t="n">
-        <v>21.36521739130435</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="F82" t="n">
-        <v>64.09565217391302</v>
+        <v>24.41739130434782</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H82" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J82" t="n">
-        <v>1.564625850340136</v>
+        <v>1.597222222222223</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01412098298676749</v>
+        <v>0.01137996219281664</v>
       </c>
       <c r="L82" t="n">
-        <v>1.270652173913044</v>
+        <v>1.074782608695652</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -4411,28 +4411,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F83" t="n">
-        <v>60.02608695652174</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04782608695652174</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="H83" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J83" t="n">
-        <v>2.041969330104923</v>
+        <v>1.981859410430839</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02440453686200378</v>
+        <v>0.04092627599243856</v>
       </c>
       <c r="L83" t="n">
-        <v>1.561304347826087</v>
+        <v>5.706521739130428</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -4459,28 +4459,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F84" t="n">
-        <v>28.48695652173913</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J84" t="n">
-        <v>2.738095238095238</v>
+        <v>1.684981684981685</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01931947069943289</v>
+        <v>0.02120982986767486</v>
       </c>
       <c r="L84" t="n">
-        <v>1.317391304347826</v>
+        <v>1.542028985507246</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -4507,28 +4507,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="F85" t="n">
-        <v>42.7304347826087</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="H85" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="J85" t="n">
-        <v>4.693877551020408</v>
+        <v>2.418058132343846</v>
       </c>
       <c r="K85" t="n">
-        <v>0.06158790170132326</v>
+        <v>0.04334593572778828</v>
       </c>
       <c r="L85" t="n">
-        <v>5.721739130434785</v>
+        <v>3.492391304347826</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -4555,28 +4555,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F86" t="n">
-        <v>39.67826086956521</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H86" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="J86" t="n">
-        <v>4.774114774114774</v>
+        <v>2.671312427409988</v>
       </c>
       <c r="K86" t="n">
-        <v>0.05843100189035917</v>
+        <v>0.02720226843100189</v>
       </c>
       <c r="L86" t="n">
-        <v>4.359782608695652</v>
+        <v>1.568774703557312</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4603,28 +4603,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F87" t="n">
-        <v>21.36521739130435</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J87" t="n">
-        <v>5.215419501133787</v>
+        <v>2.738095238095238</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03514177693761815</v>
+        <v>0.01931947069943289</v>
       </c>
       <c r="L87" t="n">
-        <v>1.734782608695652</v>
+        <v>1.317391304347826</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -4651,28 +4651,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="F88" t="n">
-        <v>8.139130434782608</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="J88" t="n">
-        <v>8.214285714285714</v>
+        <v>4.774114774114774</v>
       </c>
       <c r="K88" t="n">
-        <v>0.02291115311909262</v>
+        <v>0.05843100189035917</v>
       </c>
       <c r="L88" t="n">
-        <v>1.351304347826087</v>
+        <v>4.359782608695652</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hazelcast</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4699,28 +4699,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F89" t="n">
-        <v>10.17391304347826</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="J89" t="n">
-        <v>5.476190476190476</v>
+        <v>4.693877551020408</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01776937618147448</v>
+        <v>0.06158790170132326</v>
       </c>
       <c r="L89" t="n">
-        <v>1.255434782608696</v>
+        <v>5.721739130434785</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Neo4j</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4747,28 +4747,28 @@
         <v>21.36521739130435</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="F90" t="n">
-        <v>8.139130434782608</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H90" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="J90" t="n">
-        <v>8.214285714285714</v>
+        <v>6.160714285714286</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02291115311909262</v>
+        <v>0.03277882797731569</v>
       </c>
       <c r="L90" t="n">
-        <v>1.351304347826087</v>
+        <v>1.628260869565217</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
@@ -4780,43 +4780,43 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>Hazelcast</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D91" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F91" t="n">
-        <v>106.8260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H91" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="J91" t="n">
-        <v>2.061624649859944</v>
+        <v>5.476190476190476</v>
       </c>
       <c r="K91" t="n">
-        <v>0.03582230623818525</v>
+        <v>0.01776937618147448</v>
       </c>
       <c r="L91" t="n">
-        <v>9.239130434782606</v>
+        <v>1.255434782608696</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
@@ -4828,45 +4828,43 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D92" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F92" t="n">
-        <v>78.33913043478262</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G92" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H92" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J92" t="n">
-        <v>2.987012987012987</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04916824196597354</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02291115311909262</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.351304347826087</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
@@ -4878,43 +4876,43 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D93" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F93" t="n">
-        <v>41.71304347826087</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J93" t="n">
-        <v>4.619799139167862</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0476937618147448</v>
+        <v>0.02291115311909262</v>
       </c>
       <c r="L93" t="n">
-        <v>4.656521739130434</v>
+        <v>1.351304347826087</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
@@ -4926,45 +4924,43 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="D94" t="n">
-        <v>17.29565217391304</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F94" t="n">
-        <v>60.02608695652174</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="H94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="J94" t="n">
-        <v>3.898305084745763</v>
+        <v>2.01048951048951</v>
       </c>
       <c r="K94" t="n">
-        <v>0.05495274102079395</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.03277882797731569</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2.077018633540372</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
@@ -4976,43 +4972,43 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="D95" t="n">
-        <v>17.29565217391304</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F95" t="n">
-        <v>28.48695652173913</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G95" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="H95" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.5</v>
       </c>
       <c r="J95" t="n">
-        <v>7.731092436974789</v>
+        <v>2.804878048780488</v>
       </c>
       <c r="K95" t="n">
-        <v>0.06056710775047259</v>
+        <v>0.03077504725897921</v>
       </c>
       <c r="L95" t="n">
-        <v>14.93043478260869</v>
+        <v>1.643478260869565</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
@@ -5024,7 +5020,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5033,10 +5029,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="D96" t="n">
-        <v>17.29565217391304</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="E96" t="n">
         <v>0.04347826086956522</v>
@@ -5045,22 +5041,22 @@
         <v>10.17391304347826</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I96" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="J96" t="n">
-        <v>10.82352941176471</v>
+        <v>7.318181818181818</v>
       </c>
       <c r="K96" t="n">
-        <v>0.03156899810964083</v>
+        <v>0.02627599243856333</v>
       </c>
       <c r="L96" t="n">
-        <v>1.806763285024155</v>
+        <v>1.402898550724638</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
@@ -5072,7 +5068,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5081,10 +5077,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="D97" t="n">
-        <v>17.29565217391304</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="E97" t="n">
         <v>0.0391304347826087</v>
@@ -5093,22 +5089,22 @@
         <v>9.156521739130435</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J97" t="n">
-        <v>7.516339869281044</v>
+        <v>6.969696969696969</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0188468809073724</v>
+        <v>0.02234404536862004</v>
       </c>
       <c r="L97" t="n">
-        <v>1.361231884057971</v>
+        <v>1.321195652173913</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
@@ -5120,19 +5116,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="D98" t="n">
-        <v>17.29565217391304</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="E98" t="n">
         <v>0.03478260869565217</v>
@@ -5141,22 +5137,22 @@
         <v>8.139130434782608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="J98" t="n">
-        <v>10.14705882352941</v>
+        <v>6.534090909090909</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02351606805293005</v>
+        <v>0.01841209829867675</v>
       </c>
       <c r="L98" t="n">
-        <v>1.491699604743083</v>
+        <v>1.249104859335038</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
@@ -5168,43 +5164,43 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SapHana</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D99" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F99" t="n">
-        <v>7.121739130434782</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J99" t="n">
-        <v>11.59663865546218</v>
+        <v>1.46031746031746</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02383742911153119</v>
+        <v>0.01918714555765596</v>
       </c>
       <c r="L99" t="n">
-        <v>1.498418972332016</v>
+        <v>1.630434782608696</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
@@ -5216,43 +5212,43 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D100" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="F100" t="n">
-        <v>106.8260869565217</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="G100" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J100" t="n">
-        <v>2.061624649859944</v>
+        <v>1.299435028248588</v>
       </c>
       <c r="K100" t="n">
-        <v>0.03582230623818525</v>
+        <v>0.007013232514177695</v>
       </c>
       <c r="L100" t="n">
-        <v>9.239130434782606</v>
+        <v>1.115217391304348</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
@@ -5264,45 +5260,43 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D101" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F101" t="n">
-        <v>78.33913043478262</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G101" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H101" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J101" t="n">
-        <v>2.987012987012987</v>
+        <v>1.869918699186992</v>
       </c>
       <c r="K101" t="n">
-        <v>0.04916824196597354</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01415879017013233</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.232608695652174</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
@@ -5314,43 +5308,43 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D102" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="F102" t="n">
-        <v>41.71304347826087</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H102" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="J102" t="n">
-        <v>4.619799139167862</v>
+        <v>2.808302808302808</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0476937618147448</v>
+        <v>0.02799621928166351</v>
       </c>
       <c r="L102" t="n">
-        <v>4.656521739130434</v>
+        <v>1.585375494071146</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
@@ -5362,43 +5356,43 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D103" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="F103" t="n">
-        <v>79.35652173913043</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H103" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="J103" t="n">
-        <v>2.77526395173454</v>
+        <v>5.215419501133787</v>
       </c>
       <c r="K103" t="n">
-        <v>0.04449905482041588</v>
+        <v>0.03514177693761815</v>
       </c>
       <c r="L103" t="n">
-        <v>11.23478260869565</v>
+        <v>1.734782608695652</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
@@ -5410,43 +5404,43 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="D104" t="n">
-        <v>17.29565217391304</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="F104" t="n">
-        <v>28.48695652173913</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H104" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J104" t="n">
-        <v>7.731092436974789</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06056710775047259</v>
+        <v>0.02408317580340265</v>
       </c>
       <c r="L104" t="n">
-        <v>14.93043478260869</v>
+        <v>1.395652173913043</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
@@ -5463,40 +5457,38 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D105" t="n">
-        <v>17.29565217391304</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F105" t="n">
-        <v>17.29565217391304</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H105" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="J105" t="n">
-        <v>13.52941176470588</v>
+        <v>2.653846153846154</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06844990548204159</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02438563327032137</v>
+      </c>
+      <c r="L105" t="n">
+        <v>6.608695652173921</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
@@ -5513,38 +5505,40 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D106" t="n">
-        <v>17.29565217391304</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E106" t="n">
+        <v>0.2565217391304348</v>
+      </c>
+      <c r="F106" t="n">
+        <v>60.02608695652174</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.04347826086956522</v>
       </c>
-      <c r="F106" t="n">
-        <v>10.17391304347826</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.03478260869565217</v>
-      </c>
       <c r="H106" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I106" t="n">
-        <v>0.4705882352941176</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>10.82352941176471</v>
+        <v>3.898305084745763</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03156899810964083</v>
-      </c>
-      <c r="L106" t="n">
-        <v>1.806763285024155</v>
+        <v>0.03232514177693761</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M106" t="n">
         <v>1</v>
@@ -5561,38 +5555,38 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D107" t="n">
-        <v>17.29565217391304</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E107" t="n">
+        <v>0.2739130434782608</v>
+      </c>
+      <c r="F107" t="n">
+        <v>64.09565217391302</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.0391304347826087</v>
       </c>
-      <c r="F107" t="n">
-        <v>9.156521739130435</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.02173913043478261</v>
-      </c>
       <c r="H107" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="J107" t="n">
-        <v>7.516339869281044</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0188468809073724</v>
+        <v>0.02722117202268431</v>
       </c>
       <c r="L107" t="n">
-        <v>1.361231884057971</v>
+        <v>7.260869565217401</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -5609,38 +5603,40 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D108" t="n">
-        <v>17.29565217391304</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E108" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F108" t="n">
-        <v>8.139130434782608</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H108" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3529411764705882</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>10.14705882352941</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02351606805293005</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1.491699604743083</v>
+        <v>0.03818525519848771</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M108" t="n">
         <v>1</v>
@@ -5657,20 +5653,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SapHana</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D109" t="n">
-        <v>17.29565217391304</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E109" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F109" t="n">
-        <v>7.121739130434782</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G109" t="n">
         <v>0.02608695652173913</v>
@@ -5679,16 +5675,16 @@
         <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.6</v>
       </c>
       <c r="J109" t="n">
-        <v>11.59663865546218</v>
+        <v>6.272727272727272</v>
       </c>
       <c r="K109" t="n">
-        <v>0.02383742911153119</v>
+        <v>0.02192816635160681</v>
       </c>
       <c r="L109" t="n">
-        <v>1.498418972332016</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
@@ -5700,43 +5696,43 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>SAP Adaptive Server</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D110" t="n">
-        <v>22.38260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F110" t="n">
-        <v>78.33913043478262</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H110" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I110" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6</v>
       </c>
       <c r="J110" t="n">
-        <v>2.172373081463991</v>
+        <v>13.8</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03754253308128545</v>
+        <v>0.02419659735349716</v>
       </c>
       <c r="L110" t="n">
-        <v>2.439130434782609</v>
+        <v>2.391304347826087</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
@@ -5748,43 +5744,45 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D111" t="n">
-        <v>22.38260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F111" t="n">
-        <v>60.02608695652174</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06521739130434782</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H111" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I111" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.657935285053929</v>
+        <v>2.948717948717949</v>
       </c>
       <c r="K111" t="n">
-        <v>0.04068052930056711</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.336645962732919</v>
+        <v>0.02873345935727788</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
@@ -5796,43 +5794,45 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D112" t="n">
-        <v>22.38260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="F112" t="n">
-        <v>28.48695652173913</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04782608695652174</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I112" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>4.107142857142857</v>
+        <v>3.650793650793651</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03618147448015123</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1.756521739130435</v>
+        <v>0.03156899810964083</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M112" t="n">
         <v>1</v>
@@ -5844,43 +5844,43 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D113" t="n">
-        <v>22.38260869565217</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F113" t="n">
-        <v>17.29565217391304</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H113" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.8</v>
       </c>
       <c r="J113" t="n">
-        <v>5.53475935828877</v>
+        <v>4.487804878048781</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03206049149338375</v>
+        <v>0.02703213610586011</v>
       </c>
       <c r="L113" t="n">
-        <v>1.567224080267559</v>
+        <v>4.108695652173914</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
@@ -5892,25 +5892,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="D114" t="n">
-        <v>22.38260869565217</v>
+        <v>9.156521739130435</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="F114" t="n">
-        <v>17.29565217391304</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="G114" t="n">
         <v>0.0391304347826087</v>
@@ -5919,16 +5919,18 @@
         <v>9</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4090909090909091</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>5.53475935828877</v>
+        <v>3.898305084745763</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03206049149338375</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1.567224080267559</v>
+        <v>0.02909262759924386</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M114" t="n">
         <v>1</v>
@@ -5940,43 +5942,43 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="D115" t="n">
-        <v>22.38260869565217</v>
+        <v>9.156521739130435</v>
       </c>
       <c r="E115" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="F115" t="n">
-        <v>10.17391304347826</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J115" t="n">
-        <v>7.318181818181818</v>
+        <v>2.655122655122655</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02627599243856333</v>
+        <v>0.02168241965973535</v>
       </c>
       <c r="L115" t="n">
-        <v>1.402898550724638</v>
+        <v>5.986956521739128</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
@@ -5988,43 +5990,43 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="D116" t="n">
-        <v>22.38260869565217</v>
+        <v>9.156521739130435</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F116" t="n">
-        <v>9.156521739130435</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="J116" t="n">
-        <v>6.969696969696969</v>
+        <v>3.116531165311653</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02234404536862004</v>
+        <v>0.01476370510396975</v>
       </c>
       <c r="L116" t="n">
-        <v>1.321195652173913</v>
+        <v>1.848913043478261</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
@@ -6036,43 +6038,43 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D117" t="n">
-        <v>22.38260869565217</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E117" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F117" t="n">
-        <v>8.139130434782608</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H117" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.875</v>
       </c>
       <c r="J117" t="n">
-        <v>6.534090909090909</v>
+        <v>2.580128205128205</v>
       </c>
       <c r="K117" t="n">
-        <v>0.01841209829867675</v>
+        <v>0.01863894139886579</v>
       </c>
       <c r="L117" t="n">
-        <v>1.249104859335038</v>
+        <v>5.28695652173913</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
@@ -6084,43 +6086,45 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D118" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.3347826086956522</v>
       </c>
       <c r="F118" t="n">
-        <v>106.8260869565217</v>
+        <v>78.33913043478262</v>
       </c>
       <c r="G118" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H118" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.46031746031746</v>
+        <v>2.987012987012987</v>
       </c>
       <c r="K118" t="n">
-        <v>0.01918714555765596</v>
-      </c>
-      <c r="L118" t="n">
-        <v>1.630434782608696</v>
+        <v>0.02313799621928166</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M118" t="n">
         <v>1</v>
@@ -6132,43 +6136,43 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D119" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3347826086956522</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="F119" t="n">
-        <v>78.33913043478262</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="G119" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H119" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="J119" t="n">
-        <v>1.706864564007421</v>
+        <v>3.194444444444445</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02160680529300567</v>
+        <v>0.02090737240075614</v>
       </c>
       <c r="L119" t="n">
-        <v>1.552173913043478</v>
+        <v>5.808695652173913</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
@@ -6180,7 +6184,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6189,10 +6193,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D120" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E120" t="n">
         <v>0.1782608695652174</v>
@@ -6207,16 +6211,16 @@
         <v>7</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="J120" t="n">
-        <v>1.869918699186992</v>
+        <v>4.908536585365853</v>
       </c>
       <c r="K120" t="n">
-        <v>0.01415879017013233</v>
+        <v>0.024234404536862</v>
       </c>
       <c r="L120" t="n">
-        <v>1.232608695652174</v>
+        <v>6.573913043478261</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
@@ -6228,43 +6232,43 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D121" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F121" t="n">
-        <v>60.02608695652174</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H121" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="J121" t="n">
-        <v>1.299435028248588</v>
+        <v>6.160714285714286</v>
       </c>
       <c r="K121" t="n">
-        <v>0.007013232514177695</v>
+        <v>0.02185255198487713</v>
       </c>
       <c r="L121" t="n">
-        <v>1.115217391304348</v>
+        <v>3.51304347826087</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
@@ -6276,43 +6280,43 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D122" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F122" t="n">
-        <v>42.7304347826087</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H122" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I122" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.625</v>
       </c>
       <c r="J122" t="n">
-        <v>2.607709750566893</v>
+        <v>14.375</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02680529300567108</v>
+        <v>0.02022684310018904</v>
       </c>
       <c r="L122" t="n">
-        <v>1.560474308300395</v>
+        <v>2.55072463768116</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
@@ -6324,43 +6328,45 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>HBase</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D123" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E123" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F123" t="n">
-        <v>16.27826086956522</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I123" t="n">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>4.791666666666667</v>
+        <v>2.948717948717949</v>
       </c>
       <c r="K123" t="n">
-        <v>0.02408317580340265</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1.395652173913043</v>
+        <v>0.02298676748582231</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M123" t="n">
         <v>1</v>
@@ -6372,43 +6378,45 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DynamoDB</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D124" t="n">
-        <v>21.36521739130435</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E124" t="n">
+        <v>0.2565217391304348</v>
+      </c>
+      <c r="F124" t="n">
+        <v>60.02608695652174</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.03478260869565217</v>
       </c>
-      <c r="F124" t="n">
-        <v>8.139130434782608</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.02173913043478261</v>
-      </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2380952380952381</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>6.845238095238095</v>
+        <v>3.898305084745763</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0185633270321361</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1.266847826086957</v>
+        <v>0.02586011342155009</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M124" t="n">
         <v>1</v>
@@ -6420,43 +6428,43 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D125" t="n">
-        <v>10.17391304347826</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F125" t="n">
-        <v>106.8260869565217</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H125" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="J125" t="n">
-        <v>1.971428571428572</v>
+        <v>4.908536585365853</v>
       </c>
       <c r="K125" t="n">
-        <v>0.01928166351606806</v>
+        <v>0.024234404536862</v>
       </c>
       <c r="L125" t="n">
-        <v>5.434782608695659</v>
+        <v>6.573913043478261</v>
       </c>
       <c r="M125" t="n">
         <v>1</v>
@@ -6468,25 +6476,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D126" t="n">
-        <v>10.17391304347826</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F126" t="n">
-        <v>41.71304347826087</v>
+        <v>28.48695652173913</v>
       </c>
       <c r="G126" t="n">
         <v>0.03478260869565217</v>
@@ -6495,16 +6503,18 @@
         <v>8</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>4.487804878048781</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.02703213610586011</v>
-      </c>
-      <c r="L126" t="n">
-        <v>4.108695652173914</v>
+        <v>0.03054820415879017</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M126" t="n">
         <v>1</v>
@@ -6516,43 +6526,43 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D127" t="n">
-        <v>10.17391304347826</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F127" t="n">
-        <v>28.48695652173913</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H127" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="J127" t="n">
-        <v>7.392857142857143</v>
+        <v>9.147727272727272</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0338374291115312</v>
+        <v>0.02710775047258979</v>
       </c>
       <c r="L127" t="n">
-        <v>8.782608695652186</v>
+        <v>7.234782608695652</v>
       </c>
       <c r="M127" t="n">
         <v>1</v>
@@ -6564,25 +6574,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SapHana</t>
+          <t>SAP Adaptive Server</t>
         </is>
       </c>
       <c r="C128" t="n">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8.139130434782608</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.04347826086956522</v>
       </c>
-      <c r="D128" t="n">
+      <c r="F128" t="n">
         <v>10.17391304347826</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7.121739130434782</v>
       </c>
       <c r="G128" t="n">
         <v>0.02173913043478261</v>
@@ -6591,16 +6601,16 @@
         <v>5</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J128" t="n">
-        <v>16.42857142857143</v>
+        <v>14.375</v>
       </c>
       <c r="K128" t="n">
-        <v>0.02041587901701323</v>
+        <v>0.02022684310018904</v>
       </c>
       <c r="L128" t="n">
-        <v>1.939130434782609</v>
+        <v>2.55072463768116</v>
       </c>
       <c r="M128" t="n">
         <v>1</v>
@@ -6612,43 +6622,43 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBase</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D129" t="n">
-        <v>16.27826086956522</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F129" t="n">
-        <v>79.35652173913043</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="H129" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I129" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="J129" t="n">
-        <v>1.474358974358974</v>
+        <v>20.125</v>
       </c>
       <c r="K129" t="n">
-        <v>0.01119092627599244</v>
+        <v>0.02892249527410208</v>
       </c>
       <c r="L129" t="n">
-        <v>1.321739130434783</v>
+        <v>7.652173913043478</v>
       </c>
       <c r="M129" t="n">
         <v>1</v>
@@ -6660,43 +6670,43 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBase</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="D130" t="n">
-        <v>16.27826086956522</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="F130" t="n">
-        <v>39.67826086956521</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H130" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I130" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J130" t="n">
-        <v>2.948717948717949</v>
+        <v>20.53571428571428</v>
       </c>
       <c r="K130" t="n">
-        <v>0.02298676748582231</v>
+        <v>0.02068052930056711</v>
       </c>
       <c r="L130" t="n">
-        <v>1.660869565217391</v>
+        <v>2.585507246376812</v>
       </c>
       <c r="M130" t="n">
         <v>1</v>
@@ -6713,7 +6723,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -6723,28 +6733,28 @@
         <v>16.27826086956522</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09130434782608696</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F131" t="n">
-        <v>21.36521739130435</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H131" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I131" t="n">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="J131" t="n">
-        <v>6.160714285714286</v>
+        <v>1.474358974358974</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03277882797731569</v>
+        <v>0.01119092627599244</v>
       </c>
       <c r="L131" t="n">
-        <v>2.077018633540372</v>
+        <v>1.321739130434783</v>
       </c>
       <c r="M131" t="n">
         <v>1</v>
@@ -6756,45 +6766,43 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="D132" t="n">
-        <v>9.156521739130435</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="F132" t="n">
-        <v>106.8260869565217</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H132" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="J132" t="n">
-        <v>2.190476190476191</v>
+        <v>1.140873015873016</v>
       </c>
       <c r="K132" t="n">
-        <v>0.02126654064272212</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.002684310018903593</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1.056126482213439</v>
       </c>
       <c r="M132" t="n">
         <v>1</v>
@@ -6806,25 +6814,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="D133" t="n">
-        <v>9.156521739130435</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="F133" t="n">
-        <v>64.09565217391302</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="G133" t="n">
         <v>0.03478260869565217</v>
@@ -6833,16 +6841,16 @@
         <v>8</v>
       </c>
       <c r="I133" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5</v>
       </c>
       <c r="J133" t="n">
-        <v>3.245149911816579</v>
+        <v>2.948717948717949</v>
       </c>
       <c r="K133" t="n">
-        <v>0.02406427221172023</v>
+        <v>0.02298676748582231</v>
       </c>
       <c r="L133" t="n">
-        <v>6.534782608695649</v>
+        <v>1.660869565217391</v>
       </c>
       <c r="M133" t="n">
         <v>1</v>
@@ -6854,43 +6862,43 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MS Access</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="D134" t="n">
-        <v>9.156521739130435</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F134" t="n">
-        <v>28.48695652173913</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G134" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="J134" t="n">
-        <v>5.476190476190475</v>
+        <v>2.738095238095238</v>
       </c>
       <c r="K134" t="n">
-        <v>0.02132325141776938</v>
+        <v>0.02207939508506616</v>
       </c>
       <c r="L134" t="n">
-        <v>2.634782608695652</v>
+        <v>1.634782608695652</v>
       </c>
       <c r="M134" t="n">
         <v>1</v>
@@ -6902,45 +6910,43 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Hazelcast</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D135" t="n">
-        <v>8.139130434782608</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F135" t="n">
-        <v>64.09565217391302</v>
+        <v>106.8260869565217</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H135" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J135" t="n">
-        <v>3.650793650793651</v>
+        <v>1.314285714285714</v>
       </c>
       <c r="K135" t="n">
-        <v>0.02525519848771267</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.006238185255198488</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1.358695652173913</v>
       </c>
       <c r="M135" t="n">
         <v>1</v>
@@ -6952,43 +6958,43 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Hazelcast</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C136" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.17391304347826</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.2739130434782608</v>
+      </c>
+      <c r="F136" t="n">
+        <v>64.09565217391302</v>
+      </c>
+      <c r="G136" t="n">
         <v>0.03478260869565217</v>
       </c>
-      <c r="D136" t="n">
-        <v>8.139130434782608</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="F136" t="n">
-        <v>41.71304347826087</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.03043478260869565</v>
-      </c>
       <c r="H136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I136" t="n">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="J136" t="n">
-        <v>4.908536585365853</v>
+        <v>2.920634920634921</v>
       </c>
       <c r="K136" t="n">
-        <v>0.024234404536862</v>
+        <v>0.02287334593572779</v>
       </c>
       <c r="L136" t="n">
-        <v>6.573913043478261</v>
+        <v>3.630434782608697</v>
       </c>
       <c r="M136" t="n">
         <v>1</v>
@@ -7000,12 +7006,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -7015,30 +7021,28 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="F137" t="n">
-        <v>79.35652173913043</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H137" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J137" t="n">
-        <v>2.948717948717949</v>
+        <v>2.923728813559322</v>
       </c>
       <c r="K137" t="n">
-        <v>0.02298676748582231</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01716446124763705</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2.973913043478261</v>
       </c>
       <c r="M137" t="n">
         <v>1</v>
@@ -7050,12 +7054,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -7065,30 +7069,28 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F138" t="n">
-        <v>28.48695652173913</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H138" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J138" t="n">
-        <v>8.214285714285714</v>
+        <v>4.207317073170731</v>
       </c>
       <c r="K138" t="n">
-        <v>0.03054820415879017</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01988657844990548</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3.286956521739131</v>
       </c>
       <c r="M138" t="n">
         <v>1</v>
@@ -7100,12 +7102,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SQLite</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -7115,10 +7117,10 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E139" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="F139" t="n">
-        <v>22.38260869565217</v>
+        <v>39.67826086956521</v>
       </c>
       <c r="G139" t="n">
         <v>0.03043478260869565</v>
@@ -7130,13 +7132,13 @@
         <v>0.875</v>
       </c>
       <c r="J139" t="n">
-        <v>9.147727272727272</v>
+        <v>5.160256410256411</v>
       </c>
       <c r="K139" t="n">
-        <v>0.02710775047258979</v>
+        <v>0.02453686200378072</v>
       </c>
       <c r="L139" t="n">
-        <v>7.234782608695652</v>
+        <v>6.643478260869565</v>
       </c>
       <c r="M139" t="n">
         <v>1</v>
@@ -7148,12 +7150,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -7163,10 +7165,10 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E140" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="F140" t="n">
-        <v>10.17391304347826</v>
+        <v>42.7304347826087</v>
       </c>
       <c r="G140" t="n">
         <v>0.03043478260869565</v>
@@ -7178,13 +7180,13 @@
         <v>0.875</v>
       </c>
       <c r="J140" t="n">
-        <v>20.125</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="K140" t="n">
-        <v>0.02892249527410208</v>
+        <v>0.02408317580340265</v>
       </c>
       <c r="L140" t="n">
-        <v>7.652173913043478</v>
+        <v>6.539130434782608</v>
       </c>
       <c r="M140" t="n">
         <v>1</v>
@@ -7196,12 +7198,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Firebird</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SapHana</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -7211,10 +7213,10 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="F141" t="n">
-        <v>7.121739130434782</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="G141" t="n">
         <v>0.02173913043478261</v>
@@ -7226,13 +7228,13 @@
         <v>0.625</v>
       </c>
       <c r="J141" t="n">
-        <v>20.53571428571428</v>
+        <v>6.845238095238095</v>
       </c>
       <c r="K141" t="n">
-        <v>0.02068052930056711</v>
+        <v>0.0185633270321361</v>
       </c>
       <c r="L141" t="n">
-        <v>2.585507246376812</v>
+        <v>2.423188405797101</v>
       </c>
       <c r="M141" t="n">
         <v>1</v>
@@ -7249,7 +7251,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -7259,28 +7261,28 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="F142" t="n">
-        <v>60.02608695652174</v>
+        <v>8.139130434782608</v>
       </c>
       <c r="G142" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H142" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I142" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="J142" t="n">
-        <v>2.923728813559322</v>
+        <v>17.96875</v>
       </c>
       <c r="K142" t="n">
-        <v>0.01716446124763705</v>
+        <v>0.02052930056710775</v>
       </c>
       <c r="L142" t="n">
-        <v>2.973913043478261</v>
+        <v>2.573913043478261</v>
       </c>
       <c r="M142" t="n">
         <v>1</v>
@@ -7292,43 +7294,43 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="D143" t="n">
-        <v>8.139130434782608</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="F143" t="n">
-        <v>42.7304347826087</v>
+        <v>79.35652173913043</v>
       </c>
       <c r="G143" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I143" t="n">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J143" t="n">
-        <v>4.791666666666667</v>
+        <v>2.527472527472527</v>
       </c>
       <c r="K143" t="n">
-        <v>0.02408317580340265</v>
+        <v>0.01576559546313799</v>
       </c>
       <c r="L143" t="n">
-        <v>6.539130434782608</v>
+        <v>4.626086956521737</v>
       </c>
       <c r="M143" t="n">
         <v>1</v>
@@ -7340,25 +7342,25 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="D144" t="n">
-        <v>8.139130434782608</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1695652173913043</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="F144" t="n">
-        <v>39.67826086956521</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="G144" t="n">
         <v>0.03043478260869565</v>
@@ -7367,16 +7369,18 @@
         <v>7</v>
       </c>
       <c r="I144" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>5.160256410256411</v>
+        <v>3.898305084745763</v>
       </c>
       <c r="K144" t="n">
-        <v>0.02453686200378072</v>
-      </c>
-      <c r="L144" t="n">
-        <v>6.643478260869565</v>
+        <v>0.02262759924385633</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M144" t="n">
         <v>1</v>
@@ -7388,43 +7392,43 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Couchbase</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Neo4j</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="D145" t="n">
-        <v>8.139130434782608</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="E145" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.2739130434782608</v>
       </c>
       <c r="F145" t="n">
-        <v>8.139130434782608</v>
+        <v>64.09565217391302</v>
       </c>
       <c r="G145" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H145" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I145" t="n">
-        <v>0.625</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J145" t="n">
-        <v>17.96875</v>
+        <v>3.129251700680272</v>
       </c>
       <c r="K145" t="n">
-        <v>0.02052930056710775</v>
+        <v>0.01775047258979206</v>
       </c>
       <c r="L145" t="n">
-        <v>2.573913043478261</v>
+        <v>5.082608695652173</v>
       </c>
       <c r="M145" t="n">
         <v>1</v>
@@ -7436,43 +7440,43 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="D146" t="n">
-        <v>8.139130434782608</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2739130434782608</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F146" t="n">
-        <v>64.09565217391302</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G146" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H146" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I146" t="n">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J146" t="n">
-        <v>3.194444444444445</v>
+        <v>4.808362369337979</v>
       </c>
       <c r="K146" t="n">
-        <v>0.02090737240075614</v>
+        <v>0.02066162570888469</v>
       </c>
       <c r="L146" t="n">
-        <v>5.808695652173913</v>
+        <v>5.752173913043476</v>
       </c>
       <c r="M146" t="n">
         <v>1</v>
@@ -7484,43 +7488,43 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MS SQL Server</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="D147" t="n">
-        <v>8.139130434782608</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="F147" t="n">
-        <v>41.71304347826087</v>
+        <v>22.38260869565217</v>
       </c>
       <c r="G147" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H147" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I147" t="n">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J147" t="n">
-        <v>4.908536585365853</v>
+        <v>8.961038961038961</v>
       </c>
       <c r="K147" t="n">
-        <v>0.024234404536862</v>
+        <v>0.0231758034026465</v>
       </c>
       <c r="L147" t="n">
-        <v>6.573913043478261</v>
+        <v>6.330434782608694</v>
       </c>
       <c r="M147" t="n">
         <v>1</v>
@@ -7532,43 +7536,43 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>SAP Adaptive Server</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="D148" t="n">
-        <v>8.139130434782608</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F148" t="n">
-        <v>79.35652173913043</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G148" t="n">
-        <v>0.03043478260869565</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H148" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I148" t="n">
-        <v>0.875</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J148" t="n">
-        <v>2.580128205128205</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="K148" t="n">
-        <v>0.01863894139886579</v>
+        <v>0.02041587901701323</v>
       </c>
       <c r="L148" t="n">
-        <v>5.28695652173913</v>
+        <v>3.347826086956521</v>
       </c>
       <c r="M148" t="n">
         <v>1</v>
@@ -7580,43 +7584,43 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>IBM DB2</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="D149" t="n">
-        <v>8.139130434782608</v>
+        <v>7.121739130434782</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F149" t="n">
-        <v>28.48695652173913</v>
+        <v>10.17391304347826</v>
       </c>
       <c r="G149" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H149" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I149" t="n">
-        <v>0.75</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J149" t="n">
-        <v>6.160714285714286</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="K149" t="n">
-        <v>0.02185255198487713</v>
+        <v>0.02041587901701323</v>
       </c>
       <c r="L149" t="n">
-        <v>3.51304347826087</v>
+        <v>3.347826086956521</v>
       </c>
       <c r="M149" t="n">
         <v>1</v>
@@ -7628,12 +7632,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SAP SQL Anywhere</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -7643,28 +7647,28 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E150" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="F150" t="n">
-        <v>17.29565217391304</v>
+        <v>60.02608695652174</v>
       </c>
       <c r="G150" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I150" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="J150" t="n">
-        <v>8.455882352941176</v>
+        <v>2.923728813559322</v>
       </c>
       <c r="K150" t="n">
-        <v>0.01916824196597353</v>
+        <v>0.01716446124763705</v>
       </c>
       <c r="L150" t="n">
-        <v>2.469565217391304</v>
+        <v>2.973913043478261</v>
       </c>
       <c r="M150" t="n">
         <v>1</v>
@@ -7676,12 +7680,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SAP Adaptive Server</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -7691,28 +7695,28 @@
         <v>8.139130434782608</v>
       </c>
       <c r="E151" t="n">
-        <v>0.07391304347826087</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="F151" t="n">
-        <v>17.29565217391304</v>
+        <v>41.71304347826087</v>
       </c>
       <c r="G151" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I151" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="J151" t="n">
-        <v>8.455882352941176</v>
+        <v>4.207317073170731</v>
       </c>
       <c r="K151" t="n">
-        <v>0.01916824196597353</v>
+        <v>0.01988657844990548</v>
       </c>
       <c r="L151" t="n">
-        <v>2.469565217391304</v>
+        <v>3.286956521739131</v>
       </c>
       <c r="M151" t="n">
         <v>1</v>
@@ -7724,43 +7728,43 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>Google Cloud Datastore</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Informix</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="D152" t="n">
-        <v>8.139130434782608</v>
+        <v>24.41739130434782</v>
       </c>
       <c r="E152" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="F152" t="n">
-        <v>10.17391304347826</v>
+        <v>21.36521739130435</v>
       </c>
       <c r="G152" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H152" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I152" t="n">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="J152" t="n">
-        <v>14.375</v>
+        <v>2.738095238095238</v>
       </c>
       <c r="K152" t="n">
-        <v>0.02022684310018904</v>
+        <v>0.01655954631379962</v>
       </c>
       <c r="L152" t="n">
-        <v>2.55072463768116</v>
+        <v>1.211594202898551</v>
       </c>
       <c r="M152" t="n">
         <v>1</v>
@@ -7772,822 +7776,48 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Hazelcast</t>
+          <t>Google Cloud Datastore</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="D153" t="n">
-        <v>10.17391304347826</v>
+        <v>24.41739130434782</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="F153" t="n">
-        <v>106.8260869565217</v>
+        <v>16.27826086956522</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H153" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I153" t="n">
-        <v>0.6</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="J153" t="n">
-        <v>1.314285714285714</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="K153" t="n">
-        <v>0.006238185255198488</v>
+        <v>0.01448015122873346</v>
       </c>
       <c r="L153" t="n">
-        <v>1.358695652173913</v>
+        <v>1.175286041189931</v>
       </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
       <c r="N153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Hazelcast</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="D154" t="n">
-        <v>10.17391304347826</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.3347826086956522</v>
-      </c>
-      <c r="F154" t="n">
-        <v>78.33913043478262</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H154" t="n">
-        <v>6</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.792207792207792</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.01153119092627599</v>
-      </c>
-      <c r="L154" t="n">
-        <v>1.663043478260869</v>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Hazelcast</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>MongoDB</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="D155" t="n">
-        <v>10.17391304347826</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.1695652173913043</v>
-      </c>
-      <c r="F155" t="n">
-        <v>39.67826086956521</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="H155" t="n">
-        <v>7</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.128205128205129</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.02306238185255199</v>
-      </c>
-      <c r="L155" t="n">
-        <v>2.768115942028986</v>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Neo4j</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="D156" t="n">
-        <v>8.139130434782608</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.3347826086956522</v>
-      </c>
-      <c r="F156" t="n">
-        <v>78.33913043478262</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H156" t="n">
-        <v>6</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2.24025974025974</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.01444234404536862</v>
-      </c>
-      <c r="L156" t="n">
-        <v>2.660869565217391</v>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Neo4j</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>MS SQL Server</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="D157" t="n">
-        <v>8.139130434782608</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="F157" t="n">
-        <v>41.71304347826087</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H157" t="n">
-        <v>6</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.207317073170731</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.01988657844990548</v>
-      </c>
-      <c r="L157" t="n">
-        <v>3.286956521739131</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Neo4j</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="D158" t="n">
-        <v>8.139130434782608</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.2565217391304348</v>
-      </c>
-      <c r="F158" t="n">
-        <v>60.02608695652174</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H158" t="n">
-        <v>6</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J158" t="n">
-        <v>2.923728813559322</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.01716446124763705</v>
-      </c>
-      <c r="L158" t="n">
-        <v>2.973913043478261</v>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Neo4j</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>MongoDB</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="D159" t="n">
-        <v>8.139130434782608</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.1695652173913043</v>
-      </c>
-      <c r="F159" t="n">
-        <v>39.67826086956521</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="H159" t="n">
-        <v>7</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="J159" t="n">
-        <v>5.160256410256411</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.02453686200378072</v>
-      </c>
-      <c r="L159" t="n">
-        <v>6.643478260869565</v>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Google Cloud Datastore</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>MongoDB</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="D160" t="n">
-        <v>24.41739130434782</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.1695652173913043</v>
-      </c>
-      <c r="F160" t="n">
-        <v>39.67826086956521</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="H160" t="n">
-        <v>7</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.72008547008547</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.01274102079395086</v>
-      </c>
-      <c r="L160" t="n">
-        <v>1.172378516624041</v>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Google Cloud Datastore</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>DynamoDB</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="D161" t="n">
-        <v>24.41739130434782</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.09130434782608696</v>
-      </c>
-      <c r="F161" t="n">
-        <v>21.36521739130435</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H161" t="n">
-        <v>6</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J161" t="n">
-        <v>2.738095238095238</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.01655954631379962</v>
-      </c>
-      <c r="L161" t="n">
-        <v>1.211594202898551</v>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Google Cloud Datastore</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>HBase</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="D162" t="n">
-        <v>24.41739130434782</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="F162" t="n">
-        <v>16.27826086956522</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="H162" t="n">
-        <v>5</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2.994791666666667</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.01448015122873346</v>
-      </c>
-      <c r="L162" t="n">
-        <v>1.175286041189931</v>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SapHana</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="D163" t="n">
-        <v>7.121739130434782</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="F163" t="n">
-        <v>106.8260869565217</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="H163" t="n">
-        <v>7</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2.190476190476191</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.0165406427221172</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SapHana</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="D164" t="n">
-        <v>7.121739130434782</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.3347826086956522</v>
-      </c>
-      <c r="F164" t="n">
-        <v>78.33913043478262</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="H164" t="n">
-        <v>7</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>2.987012987012987</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.02024574669187146</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SapHana</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>HyperSQL</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="D165" t="n">
-        <v>7.121739130434782</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.2739130434782608</v>
-      </c>
-      <c r="F165" t="n">
-        <v>64.09565217391302</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H165" t="n">
-        <v>6</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.129251700680272</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.01775047258979206</v>
-      </c>
-      <c r="L165" t="n">
-        <v>5.082608695652173</v>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SapHana</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>MS SQL Server</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="D166" t="n">
-        <v>7.121739130434782</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="F166" t="n">
-        <v>41.71304347826087</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H166" t="n">
-        <v>6</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.808362369337979</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.02066162570888469</v>
-      </c>
-      <c r="L166" t="n">
-        <v>5.752173913043476</v>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SapHana</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="D167" t="n">
-        <v>7.121739130434782</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.2565217391304348</v>
-      </c>
-      <c r="F167" t="n">
-        <v>60.02608695652174</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="H167" t="n">
-        <v>7</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3.898305084745763</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.02262759924385633</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SapHana</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="D168" t="n">
-        <v>7.121739130434782</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.3391304347826087</v>
-      </c>
-      <c r="F168" t="n">
-        <v>79.35652173913043</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H168" t="n">
-        <v>6</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J168" t="n">
-        <v>2.527472527472527</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.01576559546313799</v>
-      </c>
-      <c r="L168" t="n">
-        <v>4.626086956521737</v>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SapHana</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>SQLite</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="D169" t="n">
-        <v>7.121739130434782</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="F169" t="n">
-        <v>22.38260869565217</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H169" t="n">
-        <v>6</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J169" t="n">
-        <v>8.961038961038961</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.0231758034026465</v>
-      </c>
-      <c r="L169" t="n">
-        <v>6.330434782608694</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
